--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T11:38:34+00:00</t>
+    <t>2022-08-31T09:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:33:23+00:00</t>
+    <t>2022-08-31T09:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:56:11+00:00</t>
+    <t>2022-08-31T10:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:36:06+00:00</t>
+    <t>2022-08-31T12:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T12:42:43+00:00</t>
+    <t>2022-08-31T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T14:41:46+00:00</t>
+    <t>2022-08-31T20:08:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:08:39+00:00</t>
+    <t>2022-08-31T20:28:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:28:40+00:00</t>
+    <t>2022-08-31T20:44:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:44:20+00:00</t>
+    <t>2022-08-31T20:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:56:30+00:00</t>
+    <t>2022-09-03T19:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T19:58:19+00:00</t>
+    <t>2022-09-03T20:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T20:14:05+00:00</t>
+    <t>2022-09-03T21:16:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T21:16:47+00:00</t>
+    <t>2022-09-03T21:25:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T21:25:02+00:00</t>
+    <t>2022-09-04T09:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T09:55:59+00:00</t>
+    <t>2022-09-04T13:23:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:23:45+00:00</t>
+    <t>2022-09-04T13:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:33:44+00:00</t>
+    <t>2022-09-04T13:49:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:49:49+00:00</t>
+    <t>2022-09-04T14:40:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T14:40:23+00:00</t>
+    <t>2022-09-04T15:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T15:15:31+00:00</t>
+    <t>2022-09-04T15:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T15:19:44+00:00</t>
+    <t>2022-09-04T16:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T16:44:58+00:00</t>
+    <t>2022-09-04T16:52:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T16:52:24+00:00</t>
+    <t>2022-09-04T17:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T17:03:18+00:00</t>
+    <t>2022-09-04T18:26:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T18:26:39+00:00</t>
+    <t>2022-09-05T12:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4586,7 +4586,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>258</v>
       </c>
@@ -4596,13 +4596,13 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4695,7 +4695,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>265</v>
       </c>
@@ -4705,13 +4705,13 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T12:17:02+00:00</t>
+    <t>2022-09-05T12:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -619,25 +619,25 @@
     <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
   </si>
   <si>
+    <t>http://example.com/fhir/example/ValueSet/vs-cancellation-reason</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
+  </si>
+  <si>
+    <t>Task.businessStatus</t>
+  </si>
+  <si>
+    <t>E.g. "Specimen collected", "IV prepped"</t>
+  </si>
+  <si>
+    <t>Contains business-specific nuances of the business state.</t>
+  </si>
+  <si>
+    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
+  </si>
+  <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>Codes to identify the reason for current status.  These will typically be specific to a particular workflow.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
-  </si>
-  <si>
-    <t>Task.businessStatus</t>
-  </si>
-  <si>
-    <t>E.g. "Specimen collected", "IV prepped"</t>
-  </si>
-  <si>
-    <t>Contains business-specific nuances of the business state.</t>
-  </si>
-  <si>
-    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
   </si>
   <si>
     <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
@@ -1006,7 +1006,7 @@
     <t>This should only be included if there is no focus or if it differs from the reason indicated on the focus.</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/vs-cancellation-reason</t>
+    <t>Indicates why the task is needed.  E.g. Suspended because patient admitted to hospital.</t>
   </si>
   <si>
     <t>Event.location</t>
@@ -3585,7 +3585,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>189</v>
       </c>
@@ -3595,13 +3595,13 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3645,13 +3645,11 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X18" s="2"/>
+      <c r="Y18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3687,7 +3685,7 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3698,7 +3696,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3724,14 +3722,14 @@
         <v>190</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -3756,7 +3754,7 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="X19" t="s" s="2">
         <v>201</v>
@@ -3780,7 +3778,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4091,7 +4089,7 @@
         <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="X22" t="s" s="2">
         <v>227</v>
@@ -5363,7 +5361,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>315</v>
       </c>
@@ -5373,13 +5371,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5423,11 +5421,13 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
@@ -7195,7 +7195,7 @@
         <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="X50" t="s" s="2">
         <v>401</v>
@@ -7859,7 +7859,7 @@
         <v>76</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="X56" t="s" s="2">
         <v>417</v>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T12:37:44+00:00</t>
+    <t>2022-09-05T15:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="423">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T15:36:05+00:00</t>
+    <t>2022-09-05T19:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -586,6 +586,9 @@
   </si>
   <si>
     <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
+  </si>
+  <si>
+    <t>cancelled</t>
   </si>
   <si>
     <t>required</t>
@@ -3141,7 +3144,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>160</v>
       </c>
@@ -3151,13 +3154,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -3519,7 +3522,7 @@
         <v>76</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>76</v>
@@ -3534,13 +3537,13 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X17" t="s" s="2">
         <v>182</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
@@ -3573,13 +3576,13 @@
         <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3587,7 +3590,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3610,16 +3613,16 @@
         <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3645,11 +3648,11 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3667,7 +3670,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3685,7 +3688,7 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3696,7 +3699,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3719,17 +3722,17 @@
         <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -3754,10 +3757,10 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y19" t="s" s="2">
         <v>76</v>
@@ -3778,7 +3781,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3796,7 +3799,7 @@
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3807,7 +3810,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3833,13 +3836,13 @@
         <v>105</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3850,7 +3853,7 @@
         <v>76</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>76</v>
@@ -3865,13 +3868,13 @@
         <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>76</v>
@@ -3889,7 +3892,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>85</v>
@@ -3904,13 +3907,13 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3918,7 +3921,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3944,20 +3947,20 @@
         <v>105</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q21" t="s" s="2">
         <v>76</v>
@@ -3978,13 +3981,13 @@
         <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>76</v>
@@ -4002,7 +4005,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4017,13 +4020,13 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -4031,7 +4034,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4054,16 +4057,16 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4089,13 +4092,13 @@
         <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>76</v>
@@ -4113,7 +4116,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4128,13 +4131,13 @@
         <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4142,7 +4145,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4168,10 +4171,10 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4222,7 +4225,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4240,7 +4243,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4249,9 +4252,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4259,13 +4262,13 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4277,16 +4280,16 @@
         <v>161</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4335,7 +4338,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4353,32 +4356,32 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4390,14 +4393,14 @@
         <v>161</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4446,7 +4449,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4461,21 +4464,21 @@
         <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4483,13 +4486,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4498,17 +4501,17 @@
         <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4557,7 +4560,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4572,13 +4575,13 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4586,7 +4589,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4609,13 +4612,13 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4666,7 +4669,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4681,13 +4684,13 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4695,11 +4698,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4718,17 +4721,17 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4777,7 +4780,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4786,19 +4789,19 @@
         <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4806,11 +4809,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4829,17 +4832,17 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -4888,7 +4891,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4897,7 +4900,7 @@
         <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>97</v>
@@ -4906,7 +4909,7 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4917,7 +4920,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4940,17 +4943,17 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -4999,7 +5002,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5014,13 +5017,13 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -5028,7 +5031,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5051,17 +5054,17 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -5089,10 +5092,10 @@
         <v>109</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>76</v>
@@ -5110,7 +5113,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5125,13 +5128,13 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5139,11 +5142,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5162,19 +5165,19 @@
         <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -5223,7 +5226,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5238,13 +5241,13 @@
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5252,7 +5255,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5275,17 +5278,17 @@
         <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
@@ -5334,7 +5337,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5349,13 +5352,13 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5363,7 +5366,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5386,16 +5389,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5421,10 +5424,10 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y34" t="s" s="2">
         <v>76</v>
@@ -5445,7 +5448,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5460,21 +5463,21 @@
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5500,13 +5503,13 @@
         <v>161</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5556,7 +5559,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5571,13 +5574,13 @@
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5585,7 +5588,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5608,13 +5611,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5665,7 +5668,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5680,21 +5683,21 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5717,13 +5720,13 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5774,7 +5777,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5789,10 +5792,10 @@
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5803,11 +5806,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5826,16 +5829,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5885,7 +5888,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5900,10 +5903,10 @@
         <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5914,7 +5917,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5937,17 +5940,17 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -5996,7 +5999,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6014,7 +6017,7 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6025,7 +6028,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6051,10 +6054,10 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6105,7 +6108,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6123,7 +6126,7 @@
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6134,7 +6137,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6163,7 +6166,7 @@
         <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>134</v>
@@ -6216,7 +6219,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6234,7 +6237,7 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6245,11 +6248,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6271,10 +6274,10 @@
         <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>134</v>
@@ -6329,7 +6332,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6358,7 +6361,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6381,17 +6384,17 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6440,7 +6443,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6458,7 +6461,7 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6469,7 +6472,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6492,19 +6495,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6553,7 +6556,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6571,7 +6574,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6582,7 +6585,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6605,13 +6608,13 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6662,7 +6665,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6680,7 +6683,7 @@
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6691,11 +6694,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6714,17 +6717,17 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6773,7 +6776,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6791,7 +6794,7 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6802,7 +6805,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6828,10 +6831,10 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6882,7 +6885,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6900,7 +6903,7 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6911,7 +6914,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6940,7 +6943,7 @@
         <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>134</v>
@@ -6993,7 +6996,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7011,7 +7014,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7022,11 +7025,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7048,10 +7051,10 @@
         <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>134</v>
@@ -7106,7 +7109,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7135,11 +7138,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7158,19 +7161,19 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -7195,10 +7198,10 @@
         <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>76</v>
@@ -7219,7 +7222,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>85</v>
@@ -7237,7 +7240,7 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7248,7 +7251,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7271,13 +7274,13 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7328,7 +7331,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>85</v>
@@ -7346,7 +7349,7 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7357,7 +7360,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7380,17 +7383,17 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7439,7 +7442,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7457,7 +7460,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7468,7 +7471,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7494,10 +7497,10 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7548,7 +7551,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7566,7 +7569,7 @@
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7577,7 +7580,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7606,7 +7609,7 @@
         <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>134</v>
@@ -7659,7 +7662,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7677,7 +7680,7 @@
         <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7688,11 +7691,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7714,10 +7717,10 @@
         <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>134</v>
@@ -7772,7 +7775,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7801,11 +7804,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7824,17 +7827,17 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -7859,10 +7862,10 @@
         <v>76</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>76</v>
@@ -7883,7 +7886,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>85</v>
@@ -7901,7 +7904,7 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -7912,7 +7915,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7935,17 +7938,17 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>76</v>
@@ -7994,7 +7997,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>85</v>
@@ -8012,7 +8015,7 @@
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T19:43:49+00:00</t>
+    <t>2022-09-05T20:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:02:35+00:00</t>
+    <t>2022-09-05T20:52:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:52:48+00:00</t>
+    <t>2022-09-06T09:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T09:51:55+00:00</t>
+    <t>2022-09-06T10:23:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:23:58+00:00</t>
+    <t>2022-09-06T10:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:35:52+00:00</t>
+    <t>2022-09-06T13:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:50:16+00:00</t>
+    <t>2022-09-06T13:52:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:52:47+00:00</t>
+    <t>2022-09-06T13:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:57:27+00:00</t>
+    <t>2022-09-06T15:51:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:51:32+00:00</t>
+    <t>2022-09-06T16:22:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T16:22:29+00:00</t>
+    <t>2022-09-07T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:47:40+00:00</t>
+    <t>2022-09-07T08:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:51:15+00:00</t>
+    <t>2022-09-07T09:51:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:51:43+00:00</t>
+    <t>2022-09-07T09:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:57:24+00:00</t>
+    <t>2022-09-07T13:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="424">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:41:33+00:00</t>
+    <t>2022-09-09T10:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -280,464 +280,468 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Task.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Task.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Task.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Task.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Task.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Task.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Task.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Task.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Task Instance Identifier</t>
+  </si>
+  <si>
+    <t>The business identifier for this task.</t>
+  </si>
+  <si>
+    <t>Request.identifier, Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Task.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition)
+</t>
+  </si>
+  <si>
+    <t>Formal definition of task</t>
+  </si>
+  <si>
+    <t>The URL pointing to a *FHIR*-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
+  </si>
+  <si>
+    <t>Enables a formal definition of how he task is to be performed, enabling automation.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical, Event.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>Task.instantiatesUri</t>
+  </si>
+  <si>
+    <t>The URL pointing to an *externally* maintained  protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
+  </si>
+  <si>
+    <t>Enables a formal definition of how he task is to be performed (e.g. using BPMN, BPEL, XPDL or other formal notation to be associated with a task), enabling automation.</t>
+  </si>
+  <si>
+    <t>Event.instantiatesUrl</t>
+  </si>
+  <si>
+    <t>Task.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Request fulfilled by this task</t>
+  </si>
+  <si>
+    <t>BasedOn refers to a higher-level authorization that triggered the creation of the task.  It references a "request" resource such as a ServiceRequest, MedicationRequest, ServiceRequest, CarePlan, etc. which is distinct from the "request" resource the task is seeking to fulfill.  This latter resource is referenced by FocusOn.  For example, based on a ServiceRequest (= BasedOn), a task is created to fulfill a procedureRequest ( = FocusOn ) to collect a specimen from a patient.</t>
+  </si>
+  <si>
+    <t>Request.basedOn, Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target[moodCode=INT]</t>
+  </si>
+  <si>
+    <t>Task.groupIdentifier</t>
+  </si>
+  <si>
+    <t>Requisition or grouper id</t>
+  </si>
+  <si>
+    <t>An identifier that links together multiple tasks and other requests that were created in the same context.</t>
+  </si>
+  <si>
+    <t>Billing and/or reporting can be linked to whether multiple requests were created as a single unit.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT].id</t>
+  </si>
+  <si>
+    <t>Task.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Task)
+</t>
+  </si>
+  <si>
+    <t>Composite task</t>
+  </si>
+  <si>
+    <t>Task that this particular task is part of.</t>
+  </si>
+  <si>
+    <t>This should usually be 0..1.</t>
+  </si>
+  <si>
+    <t>Allows tasks to be broken down into sub-steps (and this division can occur independent of the original task).</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT]</t>
+  </si>
+  <si>
+    <t>Task.status</t>
+  </si>
+  <si>
+    <t>draft | requested | received | accepted | +</t>
+  </si>
+  <si>
+    <t>The current status of the task.</t>
+  </si>
+  <si>
+    <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/task-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status, Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Task.statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason for current status</t>
+  </si>
+  <si>
+    <t>An explanation as to why this task is held, failed, was refused, etc.</t>
+  </si>
+  <si>
+    <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
+  </si>
+  <si>
+    <t>http://example.com/fhir/example/ValueSet/vs-cancellation-reason</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
+  </si>
+  <si>
+    <t>Task.businessStatus</t>
+  </si>
+  <si>
+    <t>E.g. "Specimen collected", "IV prepped"</t>
+  </si>
+  <si>
+    <t>Contains business-specific nuances of the business state.</t>
+  </si>
+  <si>
+    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="business status"]</t>
+  </si>
+  <si>
+    <t>Task.intent</t>
+  </si>
+  <si>
+    <t>unknown | proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Indicates the "level" of actionability associated with the Task, i.e. i+R[9]Cs this a proposed task, a planned task, an actionable task, etc.</t>
+  </si>
+  <si>
+    <t>This element is immutable.  Proposed tasks, planned tasks, etc. must be distinct instances.
+In most cases, Tasks will have an intent of "order".</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>Distinguishes whether the task is a proposal, plan or full order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/task-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Task.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the Task should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>Used to identify the service level expected while performing a task.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>The task's priority.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>Task.code</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>A name or code (or both) briefly describing what the task involves.</t>
+  </si>
+  <si>
+    <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
+  </si>
+  <si>
+    <t>Codes to identify what the task involves.  These will typically be specific to a particular workflow.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/task-code</t>
+  </si>
+  <si>
+    <t>Request.code, Event.code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Task.description</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Task.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Task.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Task.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Task.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Task.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Task.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Task.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Task.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Task Instance Identifier</t>
-  </si>
-  <si>
-    <t>The business identifier for this task.</t>
-  </si>
-  <si>
-    <t>Request.identifier, Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Task.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(ActivityDefinition)
-</t>
-  </si>
-  <si>
-    <t>Formal definition of task</t>
-  </si>
-  <si>
-    <t>The URL pointing to a *FHIR*-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
-  </si>
-  <si>
-    <t>Enables a formal definition of how he task is to be performed, enabling automation.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical, Event.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>Task.instantiatesUri</t>
-  </si>
-  <si>
-    <t>The URL pointing to an *externally* maintained  protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
-  </si>
-  <si>
-    <t>Enables a formal definition of how he task is to be performed (e.g. using BPMN, BPEL, XPDL or other formal notation to be associated with a task), enabling automation.</t>
-  </si>
-  <si>
-    <t>Event.instantiatesUrl</t>
-  </si>
-  <si>
-    <t>Task.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Request fulfilled by this task</t>
-  </si>
-  <si>
-    <t>BasedOn refers to a higher-level authorization that triggered the creation of the task.  It references a "request" resource such as a ServiceRequest, MedicationRequest, ServiceRequest, CarePlan, etc. which is distinct from the "request" resource the task is seeking to fulfill.  This latter resource is referenced by FocusOn.  For example, based on a ServiceRequest (= BasedOn), a task is created to fulfill a procedureRequest ( = FocusOn ) to collect a specimen from a patient.</t>
-  </si>
-  <si>
-    <t>Request.basedOn, Event.basedOn</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target[moodCode=INT]</t>
-  </si>
-  <si>
-    <t>Task.groupIdentifier</t>
-  </si>
-  <si>
-    <t>Requisition or grouper id</t>
-  </si>
-  <si>
-    <t>An identifier that links together multiple tasks and other requests that were created in the same context.</t>
-  </si>
-  <si>
-    <t>Billing and/or reporting can be linked to whether multiple requests were created as a single unit.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT].id</t>
-  </si>
-  <si>
-    <t>Task.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Task)
-</t>
-  </si>
-  <si>
-    <t>Composite task</t>
-  </si>
-  <si>
-    <t>Task that this particular task is part of.</t>
-  </si>
-  <si>
-    <t>This should usually be 0..1.</t>
-  </si>
-  <si>
-    <t>Allows tasks to be broken down into sub-steps (and this division can occur independent of the original task).</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT]</t>
-  </si>
-  <si>
-    <t>Task.status</t>
-  </si>
-  <si>
-    <t>draft | requested | received | accepted | +</t>
-  </si>
-  <si>
-    <t>The current status of the task.</t>
-  </si>
-  <si>
-    <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status, Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Task.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>An explanation as to why this task is held, failed, was refused, etc.</t>
-  </si>
-  <si>
-    <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
-  </si>
-  <si>
-    <t>http://example.com/fhir/example/ValueSet/vs-cancellation-reason</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
-  </si>
-  <si>
-    <t>Task.businessStatus</t>
-  </si>
-  <si>
-    <t>E.g. "Specimen collected", "IV prepped"</t>
-  </si>
-  <si>
-    <t>Contains business-specific nuances of the business state.</t>
-  </si>
-  <si>
-    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="business status"]</t>
-  </si>
-  <si>
-    <t>Task.intent</t>
-  </si>
-  <si>
-    <t>unknown | proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>Indicates the "level" of actionability associated with the Task, i.e. i+R[9]Cs this a proposed task, a planned task, an actionable task, etc.</t>
-  </si>
-  <si>
-    <t>This element is immutable.  Proposed tasks, planned tasks, etc. must be distinct instances.
-In most cases, Tasks will have an intent of "order".</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>Distinguishes whether the task is a proposal, plan or full order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Task.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the Task should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>Used to identify the service level expected while performing a task.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>The task's priority.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>Task.code</t>
-  </si>
-  <si>
-    <t>Task Type</t>
-  </si>
-  <si>
-    <t>A name or code (or both) briefly describing what the task involves.</t>
-  </si>
-  <si>
-    <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
-  </si>
-  <si>
-    <t>Codes to identify what the task involves.  These will typically be specific to a particular workflow.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-code</t>
-  </si>
-  <si>
-    <t>Request.code, Event.code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>Task.description</t>
   </si>
   <si>
     <t>Human-readable explanation of task</t>
@@ -4168,13 +4172,13 @@
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4243,7 +4247,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4254,7 +4258,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4280,16 +4284,16 @@
         <v>161</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4338,7 +4342,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4356,7 +4360,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>232</v>
@@ -4367,11 +4371,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4393,14 +4397,14 @@
         <v>161</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4449,7 +4453,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4464,13 +4468,13 @@
         <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4478,7 +4482,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4501,17 +4505,17 @@
         <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4560,7 +4564,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4575,13 +4579,13 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4589,7 +4593,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4612,13 +4616,13 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4669,7 +4673,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4684,13 +4688,13 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4698,11 +4702,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4721,17 +4725,17 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4780,7 +4784,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4789,19 +4793,19 @@
         <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4809,11 +4813,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4832,17 +4836,17 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -4891,7 +4895,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4900,7 +4904,7 @@
         <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>97</v>
@@ -4909,7 +4913,7 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4920,7 +4924,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4943,17 +4947,17 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -5002,7 +5006,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5017,13 +5021,13 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -5031,7 +5035,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5057,14 +5061,14 @@
         <v>191</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -5092,10 +5096,10 @@
         <v>109</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>76</v>
@@ -5113,7 +5117,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5128,13 +5132,13 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5142,11 +5146,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5165,19 +5169,19 @@
         <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -5226,7 +5230,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5241,13 +5245,13 @@
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5255,7 +5259,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5278,17 +5282,17 @@
         <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
@@ -5337,7 +5341,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5352,13 +5356,13 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5366,7 +5370,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5392,13 +5396,13 @@
         <v>191</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5427,7 +5431,7 @@
         <v>201</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y34" t="s" s="2">
         <v>76</v>
@@ -5448,7 +5452,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5463,21 +5467,21 @@
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5503,13 +5507,13 @@
         <v>161</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5559,7 +5563,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5574,13 +5578,13 @@
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5588,7 +5592,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5611,13 +5615,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5668,7 +5672,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5683,21 +5687,21 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5720,13 +5724,13 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5777,7 +5781,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5792,10 +5796,10 @@
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5806,11 +5810,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5829,16 +5833,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5888,7 +5892,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5903,10 +5907,10 @@
         <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5917,7 +5921,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5940,17 +5944,17 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -5999,7 +6003,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6017,7 +6021,7 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6028,7 +6032,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6051,13 +6055,13 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6108,7 +6112,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6126,7 +6130,7 @@
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6137,7 +6141,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6166,7 +6170,7 @@
         <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>134</v>
@@ -6219,7 +6223,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6237,7 +6241,7 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6248,11 +6252,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6274,10 +6278,10 @@
         <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>134</v>
@@ -6332,7 +6336,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6361,7 +6365,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6384,17 +6388,17 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6443,7 +6447,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6461,7 +6465,7 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6472,7 +6476,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6495,19 +6499,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6556,7 +6560,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6574,7 +6578,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6585,7 +6589,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6608,13 +6612,13 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6665,7 +6669,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6683,7 +6687,7 @@
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6694,11 +6698,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6717,17 +6721,17 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6776,7 +6780,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6794,7 +6798,7 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6805,7 +6809,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6828,13 +6832,13 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6885,7 +6889,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6903,7 +6907,7 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6914,7 +6918,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6943,7 +6947,7 @@
         <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>134</v>
@@ -6996,7 +7000,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7014,7 +7018,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7025,11 +7029,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7051,10 +7055,10 @@
         <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>134</v>
@@ -7109,7 +7113,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7138,11 +7142,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7164,16 +7168,16 @@
         <v>191</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -7201,7 +7205,7 @@
         <v>201</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>76</v>
@@ -7222,7 +7226,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>85</v>
@@ -7240,7 +7244,7 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7251,7 +7255,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7274,13 +7278,13 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7331,7 +7335,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>85</v>
@@ -7349,7 +7353,7 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7360,7 +7364,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7383,17 +7387,17 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7442,7 +7446,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7460,7 +7464,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7471,7 +7475,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7494,13 +7498,13 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7551,7 +7555,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7569,7 +7573,7 @@
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7580,7 +7584,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7609,7 +7613,7 @@
         <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>134</v>
@@ -7662,7 +7666,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7680,7 +7684,7 @@
         <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7691,11 +7695,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7717,10 +7721,10 @@
         <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>134</v>
@@ -7775,7 +7779,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7804,11 +7808,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7830,14 +7834,14 @@
         <v>191</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -7865,7 +7869,7 @@
         <v>201</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>76</v>
@@ -7886,7 +7890,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>85</v>
@@ -7904,7 +7908,7 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -7915,7 +7919,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7938,17 +7942,17 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>76</v>
@@ -7997,7 +8001,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>85</v>
@@ -8015,7 +8019,7 @@
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T10:12:33+00:00</t>
+    <t>2022-09-09T14:31:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T14:31:53+00:00</t>
+    <t>2022-09-12T10:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T10:06:31+00:00</t>
+    <t>2022-09-14T11:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T11:15:14+00:00</t>
+    <t>2022-09-15T17:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/covid19-lab-order-cancellation</t>
+    <t>http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-lab-order-cancellation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T17:44:16+00:00</t>
+    <t>2022-09-15T19:52:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -622,7 +622,7 @@
     <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/vs-cancellation-reason</t>
+    <t>http://openhie.org/fhir/covid-casereporting/ValueSet/vs-cancellation-reason</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
@@ -1684,7 +1684,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.42578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.3125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-lab-order-cancellation</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-lab-order-cancellation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T19:52:53+00:00</t>
+    <t>2022-09-16T13:03:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -622,7 +622,7 @@
     <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid-casereporting/ValueSet/vs-cancellation-reason</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-cancellation-reason</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
@@ -1684,7 +1684,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T13:03:17+00:00</t>
+    <t>2022-09-16T14:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T14:32:23+00:00</t>
+    <t>2022-09-16T18:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T18:53:42+00:00</t>
+    <t>2022-09-16T19:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T19:44:32+00:00</t>
+    <t>2022-09-16T20:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T20:08:29+00:00</t>
+    <t>2022-09-19T15:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T15:24:10+00:00</t>
+    <t>2022-09-21T08:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T08:12:07+00:00</t>
+    <t>2022-09-21T10:21:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T10:21:48+00:00</t>
+    <t>2022-09-22T08:03:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T08:03:20+00:00</t>
+    <t>2022-10-06T11:22:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="423">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:22:19+00:00</t>
+    <t>2022-11-03T06:19:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,10 +259,6 @@
   </si>
   <si>
     <t>A task to be performed.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}</t>
   </si>
   <si>
     <t>Request, Event</t>
@@ -1914,13 +1910,13 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>76</v>
@@ -1931,7 +1927,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1942,28 +1938,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2013,13 +2009,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -2042,7 +2038,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2053,25 +2049,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2122,19 +2118,19 @@
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>76</v>
@@ -2151,7 +2147,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2162,28 +2158,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2233,19 +2229,19 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>76</v>
@@ -2262,7 +2258,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2273,7 +2269,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -2285,16 +2281,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2320,43 +2316,43 @@
         <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>76</v>
@@ -2373,18 +2369,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -2396,16 +2392,16 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2455,25 +2451,25 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>76</v>
@@ -2484,11 +2480,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2507,16 +2503,16 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2566,7 +2562,7 @@
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -2584,7 +2580,7 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>76</v>
@@ -2595,11 +2591,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2618,16 +2614,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2677,7 +2673,7 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -2689,13 +2685,13 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>76</v>
@@ -2706,11 +2702,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2723,25 +2719,25 @@
         <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -2790,7 +2786,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2802,13 +2798,13 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>76</v>
@@ -2819,7 +2815,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2842,13 +2838,13 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2899,7 +2895,7 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -2911,16 +2907,16 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>76</v>
@@ -2928,7 +2924,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2939,29 +2935,29 @@
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>76</v>
@@ -3010,25 +3006,25 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>76</v>
@@ -3039,7 +3035,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3050,29 +3046,29 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>76</v>
@@ -3121,25 +3117,25 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -3150,7 +3146,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3158,28 +3154,28 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="H14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3230,7 +3226,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3242,13 +3238,13 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -3259,7 +3255,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3270,29 +3266,29 @@
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>76</v>
@@ -3341,25 +3337,25 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3370,7 +3366,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3390,22 +3386,22 @@
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -3454,7 +3450,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3466,13 +3462,13 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3483,7 +3479,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3491,32 +3487,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="I17" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
@@ -3526,67 +3522,67 @@
         <v>76</v>
       </c>
       <c r="R17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="S17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W17" t="s" s="2">
+      <c r="X17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3594,7 +3590,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3602,31 +3598,31 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="H18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3652,47 +3648,47 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3703,7 +3699,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3714,29 +3710,29 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -3761,49 +3757,49 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3814,7 +3810,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3822,31 +3818,31 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3857,67 +3853,67 @@
         <v>76</v>
       </c>
       <c r="R20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="S20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3925,7 +3921,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3936,7 +3932,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>76</v>
@@ -3948,89 +3944,89 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P21" t="s" s="2">
+      <c r="Q21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -4038,7 +4034,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4049,28 +4045,28 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4096,52 +4092,52 @@
         <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4149,7 +4145,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4160,25 +4156,25 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4229,25 +4225,25 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4258,7 +4254,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4269,31 +4265,31 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4342,28 +4338,28 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4371,40 +4367,40 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4453,28 +4449,28 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4482,7 +4478,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4493,29 +4489,29 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4564,28 +4560,28 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4593,7 +4589,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4601,28 +4597,28 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="H27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4673,28 +4669,28 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4702,18 +4698,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>76</v>
@@ -4725,17 +4721,17 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4784,28 +4780,28 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AI28" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4813,40 +4809,40 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -4895,25 +4891,25 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4924,7 +4920,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4935,29 +4931,29 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -5006,28 +5002,28 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -5035,7 +5031,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5058,17 +5054,17 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -5093,14 +5089,14 @@
         <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5117,7 +5113,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5129,16 +5125,16 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5146,42 +5142,42 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -5230,28 +5226,28 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AK32" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="AL32" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5259,7 +5255,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5270,29 +5266,29 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
@@ -5341,28 +5337,28 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5370,7 +5366,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5381,7 +5377,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>76</v>
@@ -5393,16 +5389,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5428,60 +5424,60 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5492,7 +5488,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>76</v>
@@ -5504,16 +5500,16 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5563,28 +5559,28 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5592,7 +5588,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5615,13 +5611,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5672,7 +5668,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5684,24 +5680,24 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>337</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5724,13 +5720,13 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5781,7 +5777,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5793,13 +5789,13 @@
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5810,11 +5806,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5833,16 +5829,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5892,7 +5888,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5904,13 +5900,13 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5921,7 +5917,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5932,7 +5928,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>76</v>
@@ -5944,17 +5940,17 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -6003,25 +5999,25 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6032,7 +6028,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6043,7 +6039,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>76</v>
@@ -6055,13 +6051,13 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6112,25 +6108,25 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6141,11 +6137,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6164,16 +6160,16 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6223,7 +6219,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6235,13 +6231,13 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6252,11 +6248,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6269,25 +6265,25 @@
         <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6336,7 +6332,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6348,13 +6344,13 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6365,7 +6361,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6376,7 +6372,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>76</v>
@@ -6388,17 +6384,17 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6447,25 +6443,25 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6476,7 +6472,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6487,7 +6483,7 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>76</v>
@@ -6499,19 +6495,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6560,25 +6556,25 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6589,7 +6585,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6612,13 +6608,13 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6669,7 +6665,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6681,13 +6677,13 @@
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6698,11 +6694,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6721,17 +6717,17 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6780,7 +6776,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6792,13 +6788,13 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6809,7 +6805,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6820,7 +6816,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>76</v>
@@ -6832,13 +6828,13 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6889,25 +6885,25 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6918,11 +6914,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6941,16 +6937,16 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="L48" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7000,7 +6996,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7012,13 +7008,13 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7029,11 +7025,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7046,25 +7042,25 @@
         <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>76</v>
@@ -7113,7 +7109,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7125,13 +7121,13 @@
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7142,18 +7138,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>76</v>
@@ -7165,19 +7161,19 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -7202,10 +7198,10 @@
         <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>76</v>
@@ -7226,25 +7222,25 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7255,7 +7251,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7263,10 +7259,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>76</v>
@@ -7278,13 +7274,13 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7335,25 +7331,25 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7364,7 +7360,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7387,17 +7383,17 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7446,7 +7442,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7458,13 +7454,13 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7475,7 +7471,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7486,7 +7482,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>76</v>
@@ -7498,13 +7494,13 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7555,25 +7551,25 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7584,11 +7580,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7607,16 +7603,16 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K54" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="L54" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7666,7 +7662,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7678,13 +7674,13 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7695,11 +7691,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7712,25 +7708,25 @@
         <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7779,7 +7775,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7791,13 +7787,13 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7808,18 +7804,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>76</v>
@@ -7831,17 +7827,17 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -7866,10 +7862,10 @@
         <v>76</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>76</v>
@@ -7890,25 +7886,25 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -7919,7 +7915,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7927,10 +7923,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>76</v>
@@ -7942,17 +7938,17 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>76</v>
@@ -8001,25 +7997,25 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>

--- a/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
+++ b/branches/master/StructureDefinition-covid19-lab-order-cancellation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T06:19:36+00:00</t>
+    <t>2022-11-03T06:58:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
